--- a/test/Testresultat-XXXX.xlsx
+++ b/test/Testresultat-XXXX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Forsikring\2019\Relansering 2019\Testing\husforsikring oppfølging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Forsikring\2019\Relansering 2019\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DAA99E-17DA-4895-AC0B-B11BD65A89B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B93740-DA77-44F2-AC16-5571EEE5F9BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0427F0D6-B7EF-4934-8B65-7B695E7BBDAC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="137">
   <si>
     <t>Test case</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">Resultatene av testingen sendes til og om dere har spørsmål er det bare ta kontakt med </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husforsikring i produksjon kan dere bruke denne URL: </t>
+  </si>
+  <si>
+    <t>https://www.finansportalen.no/forsikring/husforsikring_price_testing/</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA994E-070A-4E22-9E50-88CFDF4046CB}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -1020,42 +1026,53 @@
     </row>
     <row r="10" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>129</v>
+      <c r="A11" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="17" spans="1:1" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="https://github.com/Forbrukerradet/fipo-public-share/tree/master/forsikring" xr:uid="{4F15A7E7-1AD2-4C39-B4A9-E8E230E54C95}"/>
-    <hyperlink ref="A13" r:id="rId2" display="https://github.com/Forbrukerradet/fipo-public-share/tree/master/test" xr:uid="{B06767AE-BDB1-4B45-BB3E-A0777C147834}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{718FCEA1-AF8C-4046-8145-182D5827F426}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://github.com/Forbrukerradet/fipo-public-share/tree/master/forsikring" xr:uid="{4F15A7E7-1AD2-4C39-B4A9-E8E230E54C95}"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://github.com/Forbrukerradet/fipo-public-share/tree/master/test" xr:uid="{B06767AE-BDB1-4B45-BB3E-A0777C147834}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{718FCEA1-AF8C-4046-8145-182D5827F426}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{040F900C-94D6-40F3-A187-B94FA3658002}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
 </worksheet>
 </file>
 
